--- a/data/trans_orig/Q02D_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R2-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4676</v>
+        <v>4688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01149726036962214</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05966099038553446</v>
+        <v>0.05980828375519358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -765,19 +765,19 @@
         <v>15926</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8705</v>
+        <v>8508</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25818</v>
+        <v>25682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05881374023973218</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0321452817327472</v>
+        <v>0.03141945469563264</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09534295040941881</v>
+        <v>0.09484091556897459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>16827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9137</v>
+        <v>10045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25906</v>
+        <v>27000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04819226503713672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02616776708939935</v>
+        <v>0.02876782371404948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07419220403162641</v>
+        <v>0.07732583966167499</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3853</v>
+        <v>3537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14320</v>
+        <v>14950</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09957518179659437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04916354463371302</v>
+        <v>0.04512174280284094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.182693624660982</v>
+        <v>0.1907315202323166</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -836,19 +836,19 @@
         <v>46611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34135</v>
+        <v>35651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60213</v>
+        <v>62305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1721272414030943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.126056193799014</v>
+        <v>0.1316538979950548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2223601039990354</v>
+        <v>0.2300846358538009</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -857,19 +857,19 @@
         <v>54415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41150</v>
+        <v>41451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71398</v>
+        <v>67354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1558409516342211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1178516165644212</v>
+        <v>0.1187135496789536</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2044787492329594</v>
+        <v>0.1928967114785055</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>69675</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62986</v>
+        <v>62240</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73699</v>
+        <v>74514</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8889275578337835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8035911048540911</v>
+        <v>0.7940678049310311</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9402725102593916</v>
+        <v>0.9506649915705414</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>199</v>
@@ -907,19 +907,19 @@
         <v>208254</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>193360</v>
+        <v>193170</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>222232</v>
+        <v>222272</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7690590183571735</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7140557562383334</v>
+        <v>0.713352744916692</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8206786456039157</v>
+        <v>0.8208255425350293</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>264</v>
@@ -928,19 +928,19 @@
         <v>277929</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>260826</v>
+        <v>262692</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>292332</v>
+        <v>292440</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7959667833286422</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7469854503603702</v>
+        <v>0.7523285955409326</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8372136799324127</v>
+        <v>0.8375240997833453</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>6239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2153</v>
+        <v>2209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12551</v>
+        <v>13298</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02842690687645745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009808297443847825</v>
+        <v>0.01006304969702798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05718670925946215</v>
+        <v>0.06059242334489674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1053,19 +1053,19 @@
         <v>20008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12586</v>
+        <v>11854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30938</v>
+        <v>29872</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0587993780251916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03698742095192168</v>
+        <v>0.03483652772546508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09091935973615371</v>
+        <v>0.08778467743097551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -1074,19 +1074,19 @@
         <v>26247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17435</v>
+        <v>17156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38231</v>
+        <v>38250</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04689090029571658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03114735554796164</v>
+        <v>0.03064851907905656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06830070917485188</v>
+        <v>0.0683340602653931</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>15832</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9000</v>
+        <v>9496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24539</v>
+        <v>25239</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07213618863062138</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0410074763834426</v>
+        <v>0.04326819877925887</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1118118891727885</v>
+        <v>0.1150020118181378</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -1124,19 +1124,19 @@
         <v>46492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34416</v>
+        <v>35158</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59722</v>
+        <v>61384</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1366268895244946</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1011381814467904</v>
+        <v>0.1033203322203226</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1755088128524477</v>
+        <v>0.1803904656112083</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -1145,19 +1145,19 @@
         <v>62323</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>48808</v>
+        <v>48433</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80064</v>
+        <v>79421</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1113412921955156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08719548101079029</v>
+        <v>0.08652548190826508</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1430352599250777</v>
+        <v>0.1418867271130527</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>197397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187758</v>
+        <v>186374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205554</v>
+        <v>205175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8994369044929211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.85551799633419</v>
+        <v>0.8492098282450844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9366033769748388</v>
+        <v>0.934878837774475</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>264</v>
@@ -1195,19 +1195,19 @@
         <v>273782</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256796</v>
+        <v>258369</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>288369</v>
+        <v>288032</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8045737324503137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7546574225583427</v>
+        <v>0.7592778892753305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8474423826936323</v>
+        <v>0.8464520550391411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>455</v>
@@ -1216,19 +1216,19 @@
         <v>471180</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>450081</v>
+        <v>452469</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>487457</v>
+        <v>488059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8417678075087678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8040747647951489</v>
+        <v>0.8083416133113221</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8708479728275058</v>
+        <v>0.8719235405493246</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6769</v>
+        <v>6304</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007780549224269037</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02739436240956969</v>
+        <v>0.02551283260064033</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1341,19 +1341,19 @@
         <v>10148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5066</v>
+        <v>4648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18363</v>
+        <v>18133</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03522904267064245</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01758591993502793</v>
+        <v>0.01613472738891344</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06374924768164632</v>
+        <v>0.06295104868276498</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1362,19 +1362,19 @@
         <v>12070</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6311</v>
+        <v>6117</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20261</v>
+        <v>21200</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02255536944037468</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0117935502798212</v>
+        <v>0.01143061022868934</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03786102719469791</v>
+        <v>0.03961604360952665</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>14332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7756</v>
+        <v>7191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24841</v>
+        <v>24952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05800245521036482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03139102337990082</v>
+        <v>0.02910113492907552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1005342550298702</v>
+        <v>0.1009832349804149</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1412,19 +1412,19 @@
         <v>42120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30987</v>
+        <v>31294</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55365</v>
+        <v>56627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1462207346480407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1075717705677747</v>
+        <v>0.1086373489129175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1922015156523283</v>
+        <v>0.1965834940731223</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -1433,19 +1433,19 @@
         <v>56452</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42178</v>
+        <v>41121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70362</v>
+        <v>71675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1054880930291515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07881597078842466</v>
+        <v>0.07684046409901236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1314813405508038</v>
+        <v>0.1339348788305575</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>230838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218601</v>
+        <v>220751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>237625</v>
+        <v>238402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9342169955653662</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8846962228414645</v>
+        <v>0.8933955736420418</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9616879775753486</v>
+        <v>0.9648309631838297</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>232</v>
@@ -1483,19 +1483,19 @@
         <v>235789</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>221341</v>
+        <v>219642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248336</v>
+        <v>247647</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8185502226813168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7683942770518585</v>
+        <v>0.7624961206029117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8621069360316169</v>
+        <v>0.8597148519829819</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>455</v>
@@ -1504,19 +1504,19 @@
         <v>466626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>450346</v>
+        <v>449740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>482627</v>
+        <v>482830</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8719565375304738</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8415356220597607</v>
+        <v>0.8404027777745209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9018567832501937</v>
+        <v>0.9022369867541083</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7781</v>
+        <v>7359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02092557975017156</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1078093463243174</v>
+        <v>0.1019665371894119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1629,19 +1629,19 @@
         <v>3874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9713</v>
+        <v>8683</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04480232623239031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01175883478043001</v>
+        <v>0.01173131701746587</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1123405436520344</v>
+        <v>0.1004224261070122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1650,19 +1650,19 @@
         <v>5384</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1890</v>
+        <v>1834</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12085</v>
+        <v>13388</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03393935041804086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01191263694222279</v>
+        <v>0.01156353280652163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07618060136709412</v>
+        <v>0.08439775541689361</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>3688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>938</v>
+        <v>898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9187</v>
+        <v>9114</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05110499383199349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01299561316856763</v>
+        <v>0.01244192351356213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1272977227031572</v>
+        <v>0.1262769122944715</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1700,19 +1700,19 @@
         <v>11889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6542</v>
+        <v>6260</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20329</v>
+        <v>19873</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.137500157798909</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07566118040045278</v>
+        <v>0.07240743232094617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2351207082020327</v>
+        <v>0.2298490013720464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1721,19 +1721,19 @@
         <v>15577</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9366</v>
+        <v>9011</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24893</v>
+        <v>25536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09819377334873795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05904027589930246</v>
+        <v>0.05680458563377953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1569213259596907</v>
+        <v>0.1609750479742487</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>66974</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60108</v>
+        <v>60557</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70326</v>
+        <v>70331</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.927969426417835</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8328345774933167</v>
+        <v>0.8390482323005437</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9744081215161186</v>
+        <v>0.9744767542837479</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -1771,19 +1771,19 @@
         <v>70700</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>61439</v>
+        <v>62419</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76867</v>
+        <v>76823</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8176975159687008</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7105945630555252</v>
+        <v>0.7219194351021526</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8890298785434496</v>
+        <v>0.8885201696050726</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -1792,19 +1792,19 @@
         <v>137674</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>127312</v>
+        <v>127564</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>144993</v>
+        <v>145168</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8678668762332212</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.802543591534108</v>
+        <v>0.8041345096195579</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9140064325353381</v>
+        <v>0.915109451556848</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>10573</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4942</v>
+        <v>5169</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17957</v>
+        <v>19359</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01713253929684342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008008175254362931</v>
+        <v>0.008375756341698808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02909843133718528</v>
+        <v>0.03137015847955966</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1917,19 +1917,19 @@
         <v>49956</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35862</v>
+        <v>36055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64771</v>
+        <v>66296</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05068657044017516</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03638609258988423</v>
+        <v>0.03658206647456437</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06571825289747832</v>
+        <v>0.0672653790872957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -1938,19 +1938,19 @@
         <v>60529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46615</v>
+        <v>46404</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>79352</v>
+        <v>77943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03776677197139945</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02908513981784233</v>
+        <v>0.02895372568898424</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04951132812297154</v>
+        <v>0.04863209868319773</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>41657</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30354</v>
+        <v>30552</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56586</v>
+        <v>55980</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06750250995349222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04918756953875564</v>
+        <v>0.04950755474894882</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09169503343385031</v>
+        <v>0.09071212610605142</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>137</v>
@@ -1988,19 +1988,19 @@
         <v>147111</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>122295</v>
+        <v>123775</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>167672</v>
+        <v>170028</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1492611685819599</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1240825062318594</v>
+        <v>0.1255849003648175</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1701230627544167</v>
+        <v>0.172513971125286</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>176</v>
@@ -2009,19 +2009,19 @@
         <v>188767</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>162459</v>
+        <v>163611</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>213038</v>
+        <v>214964</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.117780438649838</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1013657487909272</v>
+        <v>0.1020844741964001</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.132923739025456</v>
+        <v>0.1341258942602658</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>564884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>548931</v>
+        <v>549375</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>578433</v>
+        <v>576687</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9153649507496644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8895138252108439</v>
+        <v>0.8902338035277515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.937320571097252</v>
+        <v>0.9344915562315407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>765</v>
@@ -2059,19 +2059,19 @@
         <v>788525</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>763119</v>
+        <v>760366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>812321</v>
+        <v>815699</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.800052260977865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7742744422807158</v>
+        <v>0.771481103978135</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8241963625546903</v>
+        <v>0.8276230220702597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1310</v>
@@ -2080,19 +2080,19 @@
         <v>1353409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1321798</v>
+        <v>1325292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1383136</v>
+        <v>1384163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8444527893787626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8247297356890489</v>
+        <v>0.8269094016102615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8630008577457199</v>
+        <v>0.8636416892919409</v>
       </c>
     </row>
     <row r="23">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4822</v>
+        <v>5168</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00320268307889497</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01499979093102392</v>
+        <v>0.01607644492709248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10515</v>
+        <v>10597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003666233281455275</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02065638406979502</v>
+        <v>0.02081643737848662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12041</v>
+        <v>10420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003486805317043505</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01449775078009878</v>
+        <v>0.01254653928872896</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>59887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45876</v>
+        <v>46873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75828</v>
+        <v>73489</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1862912484137692</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1427065219618228</v>
+        <v>0.1458075982065213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2358774013660954</v>
+        <v>0.2286039698364673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -2516,19 +2516,19 @@
         <v>149641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130839</v>
+        <v>127306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173051</v>
+        <v>170169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2939643883056068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2570274519092138</v>
+        <v>0.2500883802126154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3399525207051667</v>
+        <v>0.3342911401233174</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>194</v>
@@ -2537,19 +2537,19 @@
         <v>209528</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185498</v>
+        <v>187136</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>235517</v>
+        <v>235296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2522869773026362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2233530508750299</v>
+        <v>0.2253248828703544</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2835795204812808</v>
+        <v>0.2833134931100899</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>260553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>244560</v>
+        <v>246878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>274882</v>
+        <v>273556</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8105060685073359</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7607559981014561</v>
+        <v>0.7679652897562088</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8550781269857008</v>
+        <v>0.8509524139293823</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>336</v>
@@ -2587,19 +2587,19 @@
         <v>357538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>334317</v>
+        <v>336541</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>377792</v>
+        <v>379741</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7023693784129379</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6567531949577465</v>
+        <v>0.6611217530493101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7421588506362605</v>
+        <v>0.7459873620372461</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>581</v>
@@ -2608,19 +2608,19 @@
         <v>618091</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>591928</v>
+        <v>591088</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>642919</v>
+        <v>641024</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7442262173803204</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.712723614880152</v>
+        <v>0.7117131116339838</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.774121299757025</v>
+        <v>0.7718395279043766</v>
       </c>
     </row>
     <row r="7">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5458</v>
+        <v>6385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006435207771805638</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01957967963590232</v>
+        <v>0.02290671836803699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6264</v>
+        <v>6258</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002399075775243712</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.00837713894979525</v>
+        <v>0.008369061012558821</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>29598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20415</v>
+        <v>20021</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42569</v>
+        <v>42373</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1061795149882776</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07323691739606286</v>
+        <v>0.07182300516303275</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1527095473431696</v>
+        <v>0.1520070151708084</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>110</v>
@@ -2796,19 +2796,19 @@
         <v>116210</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>97946</v>
+        <v>98056</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>136800</v>
+        <v>136706</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2477973785795009</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2088534138000273</v>
+        <v>0.2090871014490556</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2917033954337686</v>
+        <v>0.2915022261088259</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>138</v>
@@ -2817,19 +2817,19 @@
         <v>145808</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>125044</v>
+        <v>125619</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>170680</v>
+        <v>169084</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1950015718346097</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1672325771880661</v>
+        <v>0.1680012741247836</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2282656553891287</v>
+        <v>0.2261308722506708</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>247364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>234581</v>
+        <v>234860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>256957</v>
+        <v>257040</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8873852772399168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8415269951274318</v>
+        <v>0.8425284111579906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9217973590355237</v>
+        <v>0.9220975658118216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>326</v>
@@ -2867,19 +2867,19 @@
         <v>352761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>332171</v>
+        <v>332265</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>371025</v>
+        <v>370915</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7522026214204991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7082966045662313</v>
+        <v>0.7084977738911741</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7911465861999726</v>
+        <v>0.7909128985509444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>563</v>
@@ -2888,19 +2888,19 @@
         <v>600125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>575709</v>
+        <v>576748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>621325</v>
+        <v>620487</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8025993523901466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7699448123949494</v>
+        <v>0.7713355425504482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8309519010497683</v>
+        <v>0.8298312872267344</v>
       </c>
     </row>
     <row r="11">
@@ -3039,19 +3039,19 @@
         <v>21850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14676</v>
+        <v>13909</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32195</v>
+        <v>32802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0950382738066846</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06383465706406398</v>
+        <v>0.06049705550019493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1400376560171877</v>
+        <v>0.1426744176102677</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -3060,19 +3060,19 @@
         <v>58630</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46312</v>
+        <v>45992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73408</v>
+        <v>72984</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1669881705785534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1319057271292118</v>
+        <v>0.1309925694022911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2090777371413182</v>
+        <v>0.2078716105485923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -3081,19 +3081,19 @@
         <v>80480</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64237</v>
+        <v>65409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98550</v>
+        <v>98820</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1385174892475258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1105611608753251</v>
+        <v>0.1125783260311275</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1696192145367895</v>
+        <v>0.1700836574178713</v>
       </c>
     </row>
     <row r="14">
@@ -3110,19 +3110,19 @@
         <v>208056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197711</v>
+        <v>197104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>215230</v>
+        <v>215997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9049617261933154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.859962343982812</v>
+        <v>0.8573255823897318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9361653429359359</v>
+        <v>0.939502944499805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>272</v>
@@ -3131,19 +3131,19 @@
         <v>292473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>277695</v>
+        <v>278119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>304791</v>
+        <v>305111</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8330118294214466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7909222628586815</v>
+        <v>0.7921283894514072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8680942728707882</v>
+        <v>0.8690074305977087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>472</v>
@@ -3152,19 +3152,19 @@
         <v>500530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482460</v>
+        <v>482190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>516773</v>
+        <v>515601</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8614825107524742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8303807854632101</v>
+        <v>0.8299163425821288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8894388391246748</v>
+        <v>0.8874216739688726</v>
       </c>
     </row>
     <row r="15">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4944</v>
+        <v>4928</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005583147556265211</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02849518012284773</v>
+        <v>0.02840318187734889</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5545</v>
+        <v>4921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003108407084353477</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01779299354278527</v>
+        <v>0.01578935143347143</v>
       </c>
     </row>
     <row r="17">
@@ -3319,19 +3319,19 @@
         <v>18291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11387</v>
+        <v>10290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26405</v>
+        <v>27278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1324031596797867</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08242460022390309</v>
+        <v>0.07448670658660801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1911406498221709</v>
+        <v>0.1974614223761367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -3340,19 +3340,19 @@
         <v>42233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30727</v>
+        <v>31266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54466</v>
+        <v>56009</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2433910563879243</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1770816539621116</v>
+        <v>0.1801912574465221</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3138928358067397</v>
+        <v>0.3227868139428769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -3361,19 +3361,19 @@
         <v>60524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47045</v>
+        <v>45617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76068</v>
+        <v>76432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1941954660675921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1509489274939589</v>
+        <v>0.146365288232025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2440710996501942</v>
+        <v>0.2452382042327224</v>
       </c>
     </row>
     <row r="18">
@@ -3390,19 +3390,19 @@
         <v>119854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>111740</v>
+        <v>110867</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126758</v>
+        <v>127855</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8675968403202133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8088593501778292</v>
+        <v>0.8025385776238628</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9175753997760969</v>
+        <v>0.9255132934133919</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -3411,19 +3411,19 @@
         <v>130316</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>118086</v>
+        <v>116441</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>142140</v>
+        <v>141187</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7510257960558104</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6805393155375223</v>
+        <v>0.6710610409509057</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8191653598447038</v>
+        <v>0.8136718134289411</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>228</v>
@@ -3432,19 +3432,19 @@
         <v>250171</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>234540</v>
+        <v>234743</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>263559</v>
+        <v>265568</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8026961268480545</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7525434438998636</v>
+        <v>0.753195339632533</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8456522894205327</v>
+        <v>0.8521013324650822</v>
       </c>
     </row>
     <row r="19">
@@ -3536,19 +3536,19 @@
         <v>2823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7696</v>
+        <v>7776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002915920875008189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008856372531729805</v>
+        <v>0.0008800345970286881</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007948104837610442</v>
+        <v>0.008030254937327064</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10475</v>
+        <v>12163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001886717199858204</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006970954821688364</v>
+        <v>0.008094381446282706</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -3578,19 +3578,19 @@
         <v>5658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1830</v>
+        <v>1904</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13319</v>
+        <v>13194</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002290031522351866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0007404838377343573</v>
+        <v>0.0007707502733088591</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005390366348401915</v>
+        <v>0.005339528288731769</v>
       </c>
     </row>
     <row r="21">
@@ -3607,19 +3607,19 @@
         <v>129626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>110206</v>
+        <v>109254</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>150947</v>
+        <v>153292</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1338727572679144</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1138166468081225</v>
+        <v>0.1128333584369794</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1558920516708744</v>
+        <v>0.1583141930530601</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>339</v>
@@ -3628,19 +3628,19 @@
         <v>366714</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>332553</v>
+        <v>332503</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>403098</v>
+        <v>406031</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2440467091364019</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2213131315033021</v>
+        <v>0.2212799504783645</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2682602988793047</v>
+        <v>0.2702124140944533</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>463</v>
@@ -3649,19 +3649,19 @@
         <v>496340</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>451984</v>
+        <v>453050</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>536264</v>
+        <v>536083</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2008728128249523</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1829216245351547</v>
+        <v>0.1833529698524965</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2170305887895836</v>
+        <v>0.2169572281760415</v>
       </c>
     </row>
     <row r="22">
@@ -3678,19 +3678,19 @@
         <v>835829</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>815037</v>
+        <v>812350</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>855436</v>
+        <v>857092</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8632113218570774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8417388770602749</v>
+        <v>0.8389636620807288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8834613979383339</v>
+        <v>0.8851718289150977</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1053</v>
@@ -3699,19 +3699,19 @@
         <v>1133088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1095753</v>
+        <v>1092566</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1165838</v>
+        <v>1168310</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.75406657366374</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7292197394230215</v>
+        <v>0.7270990268222093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7758615255117688</v>
+        <v>0.77750650788303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1844</v>
@@ -3720,19 +3720,19 @@
         <v>1968917</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1928514</v>
+        <v>1927617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2013076</v>
+        <v>2010265</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7968371556526959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7804857496341705</v>
+        <v>0.7801228859165469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8147087468788429</v>
+        <v>0.8135711774681993</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>17947</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11126</v>
+        <v>10571</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28100</v>
+        <v>27820</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06471549417502898</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04011906762572159</v>
+        <v>0.03812016094082997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1013302525885976</v>
+        <v>0.1003204325457113</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -4085,19 +4085,19 @@
         <v>49945</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37380</v>
+        <v>38808</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65373</v>
+        <v>64174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1155656219674048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08649154020404397</v>
+        <v>0.08979582954443124</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1512643327799313</v>
+        <v>0.148489633374294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -4106,19 +4106,19 @@
         <v>67891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53658</v>
+        <v>52818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84939</v>
+        <v>83589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09569016582396107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07562900783005753</v>
+        <v>0.07444489615931396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1197186191857976</v>
+        <v>0.1178160196997701</v>
       </c>
     </row>
     <row r="5">
@@ -4135,19 +4135,19 @@
         <v>47954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36124</v>
+        <v>35607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61854</v>
+        <v>63340</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1729235848679203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1302624443870268</v>
+        <v>0.1283977846832241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2230460721491161</v>
+        <v>0.2284058178651335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -4156,19 +4156,19 @@
         <v>90264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74325</v>
+        <v>74102</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108646</v>
+        <v>107792</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2088597309996896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1719779792419824</v>
+        <v>0.1714617483383324</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2513919456972394</v>
+        <v>0.2494173113118537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>131</v>
@@ -4177,19 +4177,19 @@
         <v>138218</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116782</v>
+        <v>117644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158623</v>
+        <v>159569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1948136051114189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1646000115290769</v>
+        <v>0.1658152499293391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2235736541545073</v>
+        <v>0.224906444347736</v>
       </c>
     </row>
     <row r="6">
@@ -4206,19 +4206,19 @@
         <v>211413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>195480</v>
+        <v>195944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>224869</v>
+        <v>224090</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7623609209570507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7049062260797424</v>
+        <v>0.7065769428335663</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8108826855054884</v>
+        <v>0.8080726888505126</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>289</v>
@@ -4227,19 +4227,19 @@
         <v>291968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>271849</v>
+        <v>271227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>311213</v>
+        <v>310655</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6755746470329056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6290234077919261</v>
+        <v>0.6275834242132923</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7201058886150923</v>
+        <v>0.7188150197788479</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>489</v>
@@ -4248,19 +4248,19 @@
         <v>503381</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>477185</v>
+        <v>481372</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>526657</v>
+        <v>527743</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7094962290646201</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.672573899542837</v>
+        <v>0.6784746777366836</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7423032693929698</v>
+        <v>0.743833254744694</v>
       </c>
     </row>
     <row r="7">
@@ -4352,19 +4352,19 @@
         <v>8042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3950</v>
+        <v>4028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15817</v>
+        <v>14972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04502495794528117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02211829901638608</v>
+        <v>0.02255358527817746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08856151790470906</v>
+        <v>0.08382594478523095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -4373,19 +4373,19 @@
         <v>31768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22383</v>
+        <v>22748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43981</v>
+        <v>43953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1059520528823999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07465120913189473</v>
+        <v>0.07586838570317919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1466841279644688</v>
+        <v>0.1465895042617967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -4394,19 +4394,19 @@
         <v>39810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29340</v>
+        <v>28596</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55531</v>
+        <v>53319</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0832077265631319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06132545804163959</v>
+        <v>0.05977027435651919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1160674907111155</v>
+        <v>0.1114442803632481</v>
       </c>
     </row>
     <row r="9">
@@ -4423,19 +4423,19 @@
         <v>36161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26074</v>
+        <v>26637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47581</v>
+        <v>47082</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2024631019287929</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1459864844380153</v>
+        <v>0.1491413530917678</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2664080764844544</v>
+        <v>0.2636135567454906</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>70</v>
@@ -4444,19 +4444,19 @@
         <v>71060</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58349</v>
+        <v>57102</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>87480</v>
+        <v>86248</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2369961543432197</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1946029833494856</v>
+        <v>0.1904441259745903</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2917593361357393</v>
+        <v>0.2876507148080454</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>106</v>
@@ -4465,19 +4465,19 @@
         <v>107220</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>91420</v>
+        <v>90300</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>126661</v>
+        <v>124670</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2241048288381266</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.19108089638734</v>
+        <v>0.1887397560785621</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2647376412708533</v>
+        <v>0.2605764190298625</v>
       </c>
     </row>
     <row r="10">
@@ -4494,19 +4494,19 @@
         <v>134401</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121182</v>
+        <v>123153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144627</v>
+        <v>145427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7525119401259259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6784973494492875</v>
+        <v>0.6895323965070465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8097662717970842</v>
+        <v>0.814246227335414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>190</v>
@@ -4515,19 +4515,19 @@
         <v>197007</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179489</v>
+        <v>179021</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213046</v>
+        <v>212540</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6570517927743804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.598626975734605</v>
+        <v>0.5970660327080795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7105436031795311</v>
+        <v>0.708856254111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>319</v>
@@ -4536,19 +4536,19 @@
         <v>331408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>308533</v>
+        <v>311244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>348070</v>
+        <v>351507</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6926874445987414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6448761762907319</v>
+        <v>0.6505410873674341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7275141802436135</v>
+        <v>0.7346961580791985</v>
       </c>
     </row>
     <row r="11">
@@ -4640,19 +4640,19 @@
         <v>3459</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10473</v>
+        <v>9426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01888102524696611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004724393860553536</v>
+        <v>0.004668682916917909</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05715935055026813</v>
+        <v>0.05144747290482846</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -4661,19 +4661,19 @@
         <v>19176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11907</v>
+        <v>12197</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28926</v>
+        <v>29566</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09807829575115035</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06089943750584016</v>
+        <v>0.06237989993174273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1479439984863468</v>
+        <v>0.1512187485008561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -4682,19 +4682,19 @@
         <v>22636</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14424</v>
+        <v>14571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33973</v>
+        <v>33307</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05976578667337246</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03808320198794642</v>
+        <v>0.03847323845232545</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08969955123056345</v>
+        <v>0.08794310261862741</v>
       </c>
     </row>
     <row r="13">
@@ -4711,19 +4711,19 @@
         <v>33812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24024</v>
+        <v>23687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46151</v>
+        <v>45800</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1845428895385461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1311237729694221</v>
+        <v>0.1292847681670777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2518922856463215</v>
+        <v>0.2499746732160992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -4732,19 +4732,19 @@
         <v>48980</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38000</v>
+        <v>37591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62634</v>
+        <v>61565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2505124479316455</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1943556170736392</v>
+        <v>0.1922615916763709</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3203470468457296</v>
+        <v>0.3148792040642531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -4753,19 +4753,19 @@
         <v>82792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67445</v>
+        <v>68119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100805</v>
+        <v>99776</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2185989831278416</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1780782865165106</v>
+        <v>0.1798574198718607</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2661587959818513</v>
+        <v>0.2634436393722598</v>
       </c>
     </row>
     <row r="14">
@@ -4782,19 +4782,19 @@
         <v>145948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133900</v>
+        <v>133945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156638</v>
+        <v>156582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7965760852144878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7308190800059892</v>
+        <v>0.7310639492880946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8549209109723773</v>
+        <v>0.8546182263907111</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -4803,19 +4803,19 @@
         <v>127364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111850</v>
+        <v>113302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139121</v>
+        <v>139920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6514092563172041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5720640702445121</v>
+        <v>0.5794919374944006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7115452542899251</v>
+        <v>0.7156308909398091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>261</v>
@@ -4824,19 +4824,19 @@
         <v>273311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>254559</v>
+        <v>254504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>290645</v>
+        <v>290285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7216352301987859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6721224826846033</v>
+        <v>0.6719773384708526</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7674012622786607</v>
+        <v>0.7664504153018488</v>
       </c>
     </row>
     <row r="15">
@@ -4928,19 +4928,19 @@
         <v>4301</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9743</v>
+        <v>9934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05429605492457729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01361313661432344</v>
+        <v>0.01352839551730743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1229885143327131</v>
+        <v>0.1253958786698148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4949,19 +4949,19 @@
         <v>9030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4557</v>
+        <v>4663</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17368</v>
+        <v>16201</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06515046740436477</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03287858439605042</v>
+        <v>0.03364084579691339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.125307552093345</v>
+        <v>0.1168857533744966</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -4970,19 +4970,19 @@
         <v>13331</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7710</v>
+        <v>7410</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22182</v>
+        <v>22577</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06120289075215798</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03539479271123415</v>
+        <v>0.03401823259257388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1018344356271482</v>
+        <v>0.1036494003706321</v>
       </c>
     </row>
     <row r="17">
@@ -4999,19 +4999,19 @@
         <v>15553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9003</v>
+        <v>9108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24283</v>
+        <v>24459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1963362599156664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1136498029377707</v>
+        <v>0.1149709303615317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3065356715923416</v>
+        <v>0.3087572628673202</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -5020,19 +5020,19 @@
         <v>41773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31795</v>
+        <v>29839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53342</v>
+        <v>52245</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3013871824184962</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2294009983670609</v>
+        <v>0.2152837448328967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3848601806340458</v>
+        <v>0.3769458428074406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -5041,19 +5041,19 @@
         <v>57326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43843</v>
+        <v>44595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70391</v>
+        <v>72237</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2631818378420687</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2012813662914772</v>
+        <v>0.2047340098658796</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3231616653698295</v>
+        <v>0.3316345559067942</v>
       </c>
     </row>
     <row r="18">
@@ -5070,19 +5070,19 @@
         <v>59363</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50409</v>
+        <v>51286</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66410</v>
+        <v>66618</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7493676851597563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6363282468763504</v>
+        <v>0.6474033990103544</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.838325772827558</v>
+        <v>0.8409455003003777</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -5091,19 +5091,19 @@
         <v>87799</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74513</v>
+        <v>76590</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>98432</v>
+        <v>99370</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6334623501771391</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5376076085073523</v>
+        <v>0.5525921501764565</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7101795868034261</v>
+        <v>0.7169431232855176</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -5112,19 +5112,19 @@
         <v>147163</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132739</v>
+        <v>131484</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>160420</v>
+        <v>161106</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6756152714057734</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.609399774023243</v>
+        <v>0.6036380662739501</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7364784011087993</v>
+        <v>0.7396291665280851</v>
       </c>
     </row>
     <row r="19">
@@ -5216,19 +5216,19 @@
         <v>33749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24255</v>
+        <v>23377</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47549</v>
+        <v>47442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04698058206338631</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03376521947483122</v>
+        <v>0.03254287727393419</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06619099809939327</v>
+        <v>0.06604213885676406</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -5237,19 +5237,19 @@
         <v>109919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91162</v>
+        <v>93315</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>132247</v>
+        <v>133749</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1031007204039469</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08550655925065864</v>
+        <v>0.08752678372144054</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1240435880263672</v>
+        <v>0.1254522553165596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -5258,19 +5258,19 @@
         <v>143668</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122758</v>
+        <v>121966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>169205</v>
+        <v>166736</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08050931026927481</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06879168867698303</v>
+        <v>0.06834800365016364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09482008801571538</v>
+        <v>0.09343607067519673</v>
       </c>
     </row>
     <row r="21">
@@ -5287,19 +5287,19 @@
         <v>133480</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>113626</v>
+        <v>112602</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>156326</v>
+        <v>155401</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1858133589263366</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1581749890524003</v>
+        <v>0.1567493385404579</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2176168453160928</v>
+        <v>0.2163292617284345</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>248</v>
@@ -5308,19 +5308,19 @@
         <v>252077</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>225350</v>
+        <v>224701</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>278827</v>
+        <v>280629</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2364404381935786</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.211371190314678</v>
+        <v>0.2107621610907152</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.261530532991584</v>
+        <v>0.2632211544416467</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>374</v>
@@ -5329,19 +5329,19 @@
         <v>385557</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>350458</v>
+        <v>348982</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>423382</v>
+        <v>420297</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2160602833068223</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1963910827256661</v>
+        <v>0.1955643784898871</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2372565387001718</v>
+        <v>0.2355281973433753</v>
       </c>
     </row>
     <row r="22">
@@ -5358,19 +5358,19 @@
         <v>551126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>526793</v>
+        <v>525861</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>572335</v>
+        <v>573883</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7672060590102771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7333338276416936</v>
+        <v>0.7320359127587948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7967313225910372</v>
+        <v>0.7988864831833967</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>683</v>
@@ -5379,19 +5379,19 @@
         <v>704138</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>669477</v>
+        <v>672556</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>732614</v>
+        <v>734898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6604588414024745</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6279479148895333</v>
+        <v>0.6308360388741899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6871678511357977</v>
+        <v>0.6893100366972466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1205</v>
@@ -5400,19 +5400,19 @@
         <v>1255264</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1215496</v>
+        <v>1217389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1291935</v>
+        <v>1295913</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7034304064239029</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6811453527806766</v>
+        <v>0.6822057797641871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7239801467266853</v>
+        <v>0.7262095484799842</v>
       </c>
     </row>
     <row r="23">
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6101</v>
+        <v>6260</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02734500366699736</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0892234415715822</v>
+        <v>0.09155998873301088</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7556</v>
+        <v>6454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01901786833030738</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07685845032534709</v>
+        <v>0.0656511683994095</v>
       </c>
     </row>
     <row r="5">
@@ -5810,16 +5810,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3645</v>
+        <v>4396</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02711689102116855</v>
+        <v>0.02711689102116854</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1217412440305615</v>
+        <v>0.1468332048238656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -5828,19 +5828,19 @@
         <v>16447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9956</v>
+        <v>10720</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24118</v>
+        <v>25030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2405419671660426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1456068098586027</v>
+        <v>0.1567788879104587</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3527341556475631</v>
+        <v>0.366075834467905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -5849,19 +5849,19 @@
         <v>17259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10279</v>
+        <v>10578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25798</v>
+        <v>25895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1755494912115905</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1045523779728257</v>
+        <v>0.1075944001003463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2624090024751795</v>
+        <v>0.2633945940828628</v>
       </c>
     </row>
     <row r="6">
@@ -5878,7 +5878,7 @@
         <v>29127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26294</v>
+        <v>25543</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>29939</v>
@@ -5887,7 +5887,7 @@
         <v>0.9728831089788315</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8782587559694385</v>
+        <v>0.8531667951761335</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5899,19 +5899,19 @@
         <v>50058</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42490</v>
+        <v>40948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56806</v>
+        <v>55982</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7321130291669601</v>
+        <v>0.7321130291669599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6214314550041493</v>
+        <v>0.5988773258575176</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8307990343753403</v>
+        <v>0.8187546874471073</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -5920,19 +5920,19 @@
         <v>79185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68836</v>
+        <v>70060</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86132</v>
+        <v>86434</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.805432640458102</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7001649163029952</v>
+        <v>0.7126138425943722</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8760917196825381</v>
+        <v>0.8791664500224718</v>
       </c>
     </row>
     <row r="7">
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8134</v>
+        <v>10263</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02885103830085365</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09392146861024403</v>
+        <v>0.118498315480924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5275</v>
+        <v>5774</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01437316551942302</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04473314743250394</v>
+        <v>0.04896328864775688</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -6066,19 +6066,19 @@
         <v>4194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>985</v>
+        <v>936</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11269</v>
+        <v>11405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02050376316835728</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004818216746395035</v>
+        <v>0.004577029702119127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05509728536956689</v>
+        <v>0.05576268164498529</v>
       </c>
     </row>
     <row r="9">
@@ -6095,19 +6095,19 @@
         <v>11654</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5603</v>
+        <v>5451</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21240</v>
+        <v>20031</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1345699817682285</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06469930549692626</v>
+        <v>0.06293686555863676</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2452472617078595</v>
+        <v>0.2312919150355382</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -6116,19 +6116,19 @@
         <v>18028</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11441</v>
+        <v>11480</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25387</v>
+        <v>27198</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1528812820734151</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09702705641643686</v>
+        <v>0.09735867993788952</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2152934636440255</v>
+        <v>0.2306472298593292</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -6137,19 +6137,19 @@
         <v>29682</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20428</v>
+        <v>20115</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41344</v>
+        <v>41450</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1451274347855808</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09988036251215671</v>
+        <v>0.09835225385640588</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2021465344547323</v>
+        <v>0.2026654921557993</v>
       </c>
     </row>
     <row r="10">
@@ -6166,19 +6166,19 @@
         <v>72452</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63140</v>
+        <v>63768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78813</v>
+        <v>79623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8365789799309177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7290570757471465</v>
+        <v>0.736310116253183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9100306405668998</v>
+        <v>0.919378006797001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -6187,19 +6187,19 @@
         <v>98197</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90178</v>
+        <v>88246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105006</v>
+        <v>104587</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8327455524071619</v>
+        <v>0.8327455524071617</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7647486856345982</v>
+        <v>0.7483615969138666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8904887851141537</v>
+        <v>0.8869429922762492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -6208,19 +6208,19 @@
         <v>170648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159354</v>
+        <v>157981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180962</v>
+        <v>180353</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8343688020460618</v>
+        <v>0.8343688020460619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7791464396170055</v>
+        <v>0.7724309831197553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8847957936003799</v>
+        <v>0.8818172135267053</v>
       </c>
     </row>
     <row r="11">
@@ -6312,19 +6312,19 @@
         <v>3322</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1051</v>
+        <v>1019</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7908</v>
+        <v>8346</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05465655440512408</v>
+        <v>0.0546565544051241</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01729712289119136</v>
+        <v>0.01676737501010629</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1301052403398652</v>
+        <v>0.1373085637246193</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -6333,19 +6333,19 @@
         <v>6427</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2529</v>
+        <v>2819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14332</v>
+        <v>14644</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06074601204300176</v>
+        <v>0.06074601204300175</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02390573465559761</v>
+        <v>0.02664395076235837</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1354545458132757</v>
+        <v>0.1384032301483421</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -6354,19 +6354,19 @@
         <v>9749</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4481</v>
+        <v>4874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17482</v>
+        <v>19770</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05852420884476762</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02690105119117921</v>
+        <v>0.02926077702163378</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1049421295999541</v>
+        <v>0.1186813390905778</v>
       </c>
     </row>
     <row r="13">
@@ -6383,19 +6383,19 @@
         <v>4273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1595</v>
+        <v>1572</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8859</v>
+        <v>9111</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07029942548578766</v>
+        <v>0.07029942548578767</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02624246192630731</v>
+        <v>0.02586693365288577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1457529657653491</v>
+        <v>0.1498946035240951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -6404,19 +6404,19 @@
         <v>24473</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16743</v>
+        <v>17130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32820</v>
+        <v>33112</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2313024702531058</v>
+        <v>0.2313024702531057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1582478657914691</v>
+        <v>0.1619038191268679</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3101943141718479</v>
+        <v>0.3129548147293496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -6425,19 +6425,19 @@
         <v>28745</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20871</v>
+        <v>20157</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39121</v>
+        <v>38761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1725588019230418</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1252882200960112</v>
+        <v>0.1210049365443673</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.234842414409233</v>
+        <v>0.2326843775288003</v>
       </c>
     </row>
     <row r="14">
@@ -6454,19 +6454,19 @@
         <v>53185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46962</v>
+        <v>47269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57276</v>
+        <v>57232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8750440201090882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7726594856054519</v>
+        <v>0.7777130303538663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9423459143177778</v>
+        <v>0.9416201674247008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -6475,19 +6475,19 @@
         <v>74904</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65863</v>
+        <v>65687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82763</v>
+        <v>83740</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7079515177038924</v>
+        <v>0.7079515177038922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6224995568475942</v>
+        <v>0.6208334737874771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.782232543250675</v>
+        <v>0.7914641538625804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -6496,19 +6496,19 @@
         <v>128088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115962</v>
+        <v>116682</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138249</v>
+        <v>137961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7689169892321904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6961233648962339</v>
+        <v>0.7004427895149762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8299115013753449</v>
+        <v>0.8281827529742677</v>
       </c>
     </row>
     <row r="15">
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8889</v>
+        <v>8760</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1597633353030118</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5235579850021623</v>
+        <v>0.5159399232934275</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6621,19 +6621,19 @@
         <v>5011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1640</v>
+        <v>1790</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9695</v>
+        <v>9948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2305306571966811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07545816040156501</v>
+        <v>0.08236823834029078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.445990966644335</v>
+        <v>0.4576674112965154</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6642,19 +6642,19 @@
         <v>7724</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3202</v>
+        <v>3165</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14397</v>
+        <v>14352</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1994954819869839</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08270982833071927</v>
+        <v>0.08175100627667511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3718557390108605</v>
+        <v>0.3706783806910954</v>
       </c>
     </row>
     <row r="17">
@@ -6671,19 +6671,19 @@
         <v>2723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7418</v>
+        <v>6579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.160381488534834</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04551678546984371</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4369095337239887</v>
+        <v>0.3874565387026903</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -6692,19 +6692,19 @@
         <v>8541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4026</v>
+        <v>4675</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13129</v>
+        <v>13531</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3929041847344198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.185234279383503</v>
+        <v>0.215068514411886</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6040004734691564</v>
+        <v>0.622480126800062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -6713,19 +6713,19 @@
         <v>11264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5838</v>
+        <v>6300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17094</v>
+        <v>17628</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2909308102491137</v>
+        <v>0.2909308102491138</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1507823241425503</v>
+        <v>0.1627167859906665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4414987128989352</v>
+        <v>0.4553119242174291</v>
       </c>
     </row>
     <row r="18">
@@ -6742,19 +6742,19 @@
         <v>11543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5994</v>
+        <v>6576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15335</v>
+        <v>15318</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6798551761621543</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3530367526936861</v>
+        <v>0.3873310729204261</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.903156112158108</v>
+        <v>0.9021895996476071</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -6763,19 +6763,19 @@
         <v>8185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4385</v>
+        <v>4266</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13120</v>
+        <v>12651</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3765651580688992</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2017216616250805</v>
+        <v>0.196233823772238</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6035797741780525</v>
+        <v>0.5820154296991408</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -6784,19 +6784,19 @@
         <v>19729</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13393</v>
+        <v>13483</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26079</v>
+        <v>26756</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5095737077639021</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3459095429215387</v>
+        <v>0.3482487910982831</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6735840218619756</v>
+        <v>0.691069535685251</v>
       </c>
     </row>
     <row r="19">
@@ -6888,19 +6888,19 @@
         <v>8533</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3837</v>
+        <v>3436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17459</v>
+        <v>17194</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04391767478005828</v>
+        <v>0.04391767478005827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01974932069148804</v>
+        <v>0.01768625699519846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0898574223901214</v>
+        <v>0.08848877305782256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -6909,19 +6909,19 @@
         <v>15003</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8492</v>
+        <v>8386</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25284</v>
+        <v>25999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04780490547651343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02705806184882593</v>
+        <v>0.02672102148487447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08056411779657506</v>
+        <v>0.08284421748032682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -6930,19 +6930,19 @@
         <v>23536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15026</v>
+        <v>14533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34869</v>
+        <v>34775</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04631850036105852</v>
+        <v>0.04631850036105851</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02957043469407707</v>
+        <v>0.02860092669780339</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06862160593500231</v>
+        <v>0.06843549701311333</v>
       </c>
     </row>
     <row r="21">
@@ -6959,19 +6959,19 @@
         <v>19462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12333</v>
+        <v>12186</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31239</v>
+        <v>29914</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1001644284596449</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06347409780000399</v>
+        <v>0.06271830731559232</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1607777089989164</v>
+        <v>0.1539581855288241</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>74</v>
@@ -6980,19 +6980,19 @@
         <v>67488</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54300</v>
+        <v>54417</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>84216</v>
+        <v>82989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2150429473871673</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1730198134906261</v>
+        <v>0.1733942125346375</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2683463700299828</v>
+        <v>0.2644351166411036</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>92</v>
@@ -7001,19 +7001,19 @@
         <v>86950</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71128</v>
+        <v>69536</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104575</v>
+        <v>104553</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1711155266798063</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1399781382658989</v>
+        <v>0.1368452914648179</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2058015072343335</v>
+        <v>0.2057579458829266</v>
       </c>
     </row>
     <row r="22">
@@ -7030,19 +7030,19 @@
         <v>166307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153298</v>
+        <v>154574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>174744</v>
+        <v>175496</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8559178967602967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.788966446064601</v>
+        <v>0.7955366852083635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8993409094311992</v>
+        <v>0.903213900286048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>277</v>
@@ -7051,19 +7051,19 @@
         <v>231344</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>216130</v>
+        <v>214403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>246109</v>
+        <v>245920</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7371521471363193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.688673919947157</v>
+        <v>0.6831715592026826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7841972371427665</v>
+        <v>0.7835978202494517</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>417</v>
@@ -7072,19 +7072,19 @@
         <v>397651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>379014</v>
+        <v>377336</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>417003</v>
+        <v>416230</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7825659729591351</v>
+        <v>0.782565972959135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7458894708587922</v>
+        <v>0.742586320054286</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8206515409510025</v>
+        <v>0.8191303291637452</v>
       </c>
     </row>
     <row r="23">
